--- a/AssignGolf_Task.xlsx
+++ b/AssignGolf_Task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\354227917\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF0A5DD-AD96-4290-AF5F-6506A52345D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69AD82B4-EFEA-4F39-9166-A724BBF66171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -249,7 +249,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -339,13 +338,10 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$B$2</c:f>
+              <c:f>Sheet1!$B$2</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ryan Mohammed</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>Round 1</c:v>
                 </c:pt>
               </c:strCache>
@@ -353,7 +349,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="4285F4"/>
             </a:solidFill>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -428,13 +424,10 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1:$C$2</c:f>
+              <c:f>Sheet1!$C$2</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ryan Mohammed</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>Round 2</c:v>
                 </c:pt>
               </c:strCache>
@@ -442,7 +435,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="EA4335"/>
             </a:solidFill>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -517,13 +510,10 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1:$D$2</c:f>
+              <c:f>Sheet1!$D$2</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ryan Mohammed</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>Round 3</c:v>
                 </c:pt>
               </c:strCache>
@@ -531,7 +521,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:srgbClr val="FBBC04"/>
             </a:solidFill>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -757,8 +747,11 @@
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -794,7 +787,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame macro="">
@@ -1027,7 +1020,7 @@
   <dimension ref="A1:AE1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1045,7 +1038,7 @@
     <col min="12" max="12" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1080,7 +1073,7 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1135,7 +1128,7 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1197,7 +1190,7 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -1211,7 +1204,7 @@
         <v>71</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f t="shared" ref="E4:E5" si="2">IF(B4&gt;70,"Over par", "Under par")</f>
+        <f t="shared" ref="E4" si="2">IF(B4&gt;70,"Over par", "Under par")</f>
         <v>Under par</v>
       </c>
       <c r="F4" s="10" t="str">
@@ -1259,7 +1252,7 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1321,7 +1314,7 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -1383,7 +1376,7 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -1416,7 +1409,7 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>16</v>
       </c>
@@ -1463,7 +1456,7 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
@@ -1507,7 +1500,7 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
@@ -1551,20 +1544,20 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <v>45246</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1586,7 +1579,7 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1619,7 +1612,7 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
